--- a/опт и Краснодар/2023/11,23/20,11,23 Сочи/дв 20,11,23 счрсч от филиала.xlsx
+++ b/опт и Краснодар/2023/11,23/20,11,23 Сочи/дв 20,11,23 счрсч от филиала.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\20,11,23 Сочи\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\опт и Краснодар\2023\11,23\20,11,23 Сочи\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39627B68-123A-4157-8D90-CD6E95B7D291}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB46A4CE-1A0E-47FB-90AC-55CF62600CAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$A$3:$X$72</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -4598,7 +4598,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA16" sqref="AA16"/>
+      <selection pane="bottomLeft" activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -5530,7 +5530,7 @@
       </c>
       <c r="N16" s="20"/>
       <c r="O16" s="20">
-        <f t="shared" ref="O7:O70" si="7">N16</f>
+        <f t="shared" ref="O16:O70" si="7">N16</f>
         <v>0</v>
       </c>
       <c r="P16" s="20"/>
